--- a/biology/Zoologie/Ara_militaire/Ara_militaire.xlsx
+++ b/biology/Zoologie/Ara_militaire/Ara_militaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ara militaris
 L'Ara militaire (Ara militaris) est une espèce d'oiseaux de la famille des Psittacidae.
@@ -512,7 +524,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Malgré son nom (du fait de son plumage vert prédominant), il n'a pas de différence de tempérament par rapport aux autres oiseaux de son genre.
 </t>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce grand perroquet vert a le front rouge et le croupion bleu turquoise. Ses pattes sont gris foncé, son bec noir et l'iris de l’œil jaune.
 Il pèse environ 900 g.
-C'est un oiseau très bruyant ; il émet de nombreux craquements et cris[1].
+C'est un oiseau très bruyant ; il émet de nombreux craquements et cris.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit en montagne, dans les régions tempérées semi-arides et les forêts tropicales, près des cours d'eau. Il fréquente aussi la zone côtière. Durant l'été, on peut le trouver à des altitudes atteignant 2 500 m. En hiver, il descend dans les grands ravins.
 </t>
@@ -607,7 +625,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vit au Mexique (Sierra Madre occidentale et orientale) et les Andes boréales.
 </t>
@@ -638,7 +658,9 @@
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche dans des trous creusés par les pics et des cavités dans des falaises calcaires. La femelle pond en général 2 ou 3 œufs et l'incubation dure entre 25 et 28 jours.
 </t>
@@ -669,10 +691,12 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se nourrit entre autres de fruits, de noix et de tendres bourgeons (particulièrement d'Oenocarpus bataua, Melia azedarach[réf. nécessaire] et Ficus). Leur bec leur permet de casser les coques les plus dures[1].
-Sa tendance à manger de l'argile, notamment des tas connus sour le nom de « lèche-macao », lui offre la capacité de manger certains fruits remplis de toxines[2],[1].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nourrit entre autres de fruits, de noix et de tendres bourgeons (particulièrement d'Oenocarpus bataua, Melia azedarach[réf. nécessaire] et Ficus). Leur bec leur permet de casser les coques les plus dures.
+Sa tendance à manger de l'argile, notamment des tas connus sour le nom de « lèche-macao », lui offre la capacité de manger certains fruits remplis de toxines,.
 </t>
         </is>
       </c>
@@ -701,7 +725,9 @@
           <t>Prédateurs</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est notamment chassé par la harpie féroce.
 </t>
@@ -732,7 +758,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Il vole habituellement en couple, parfois en groupe. Il peut aussi planer. Son bec est bien adapté au mode de déplacement de l’oiseau: il lui sert de troisième pied lorsqu’il grimpe. Ses plumes multicolores sont encore aujourd'hui des parures recherchées par les Indiens. Les perroquets sont souvent menacés par le trafic d'animaux.
 Son habitat est très fragmenté, et de ce fait l'espèce est considérée comme en danger.
